--- a/IEC61853_1-2.xlsx
+++ b/IEC61853_1-2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29622"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67C4D12F-47A6-4C21-AA9E-E9D7874F5337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A838175-2126-4E52-A731-48CB8CC82F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="1845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="1845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="61853-1 &amp; 2" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Module technology</t>
   </si>
@@ -261,6 +262,30 @@
   </si>
   <si>
     <t>Voc[A]</t>
+  </si>
+  <si>
+    <t>G_POA</t>
+  </si>
+  <si>
+    <t>Tc</t>
+  </si>
+  <si>
+    <t>P_max</t>
+  </si>
+  <si>
+    <t>Voc</t>
+  </si>
+  <si>
+    <t>Isc</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
 </sst>
 </file>
@@ -465,7 +490,7 @@
       <name val="Liberation Sans"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +580,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -636,7 +667,7 @@
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -687,6 +718,8 @@
     <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="32">
@@ -948,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1015,21 +1048,21 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="38"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="34"/>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="38"/>
+      <c r="N5" s="40"/>
       <c r="O5" s="34"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="38" t="s">
+      <c r="Q5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="38"/>
+      <c r="R5" s="40"/>
       <c r="S5" s="34"/>
       <c r="U5" s="37" t="s">
         <v>9</v>
@@ -2978,4 +3011,679 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D4C9B2-F9D6-4956-A6BC-26369C4524D9}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="38">
+        <v>100</v>
+      </c>
+      <c r="B2" s="38">
+        <v>15</v>
+      </c>
+      <c r="C2" s="38">
+        <v>28.02</v>
+      </c>
+      <c r="D2" s="38">
+        <v>36.72</v>
+      </c>
+      <c r="E2" s="38">
+        <v>0.94</v>
+      </c>
+      <c r="F2" s="38">
+        <f>100*C2/(A2*$H$2)</f>
+        <v>16.778443113772454</v>
+      </c>
+      <c r="G2" s="38">
+        <f>100*C2/(D2*E2)</f>
+        <v>81.177861215408157</v>
+      </c>
+      <c r="H2" s="38">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="38">
+        <v>200</v>
+      </c>
+      <c r="B3" s="38">
+        <v>15</v>
+      </c>
+      <c r="C3" s="38">
+        <v>57.74</v>
+      </c>
+      <c r="D3" s="38">
+        <v>37.92</v>
+      </c>
+      <c r="E3" s="38">
+        <v>1.89</v>
+      </c>
+      <c r="F3" s="38">
+        <f>100*C3/(A3*$H$2)</f>
+        <v>17.287425149700599</v>
+      </c>
+      <c r="G3" s="38">
+        <f t="shared" ref="G3:G23" si="0">100*C3/(D3*E3)</f>
+        <v>80.565043645212413</v>
+      </c>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="38">
+        <v>400</v>
+      </c>
+      <c r="B4" s="38">
+        <v>15</v>
+      </c>
+      <c r="C4" s="38">
+        <v>118.14</v>
+      </c>
+      <c r="D4" s="38">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="E4" s="38">
+        <v>3.78</v>
+      </c>
+      <c r="F4" s="38">
+        <f>100*C4/(A4*$H$2)</f>
+        <v>17.685628742514972</v>
+      </c>
+      <c r="G4" s="38">
+        <f t="shared" si="0"/>
+        <v>79.810950597467468</v>
+      </c>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="38">
+        <v>600</v>
+      </c>
+      <c r="B5" s="38">
+        <v>15</v>
+      </c>
+      <c r="C5" s="38">
+        <v>178.52</v>
+      </c>
+      <c r="D5" s="38">
+        <v>39.9</v>
+      </c>
+      <c r="E5" s="38">
+        <v>5.67</v>
+      </c>
+      <c r="F5" s="38">
+        <f>100*C5/(A5*$H$2)</f>
+        <v>17.816367265469061</v>
+      </c>
+      <c r="G5" s="38">
+        <f t="shared" si="0"/>
+        <v>78.909796537198389</v>
+      </c>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="38">
+        <v>800</v>
+      </c>
+      <c r="B6" s="38">
+        <v>15</v>
+      </c>
+      <c r="C6" s="38">
+        <v>238.28</v>
+      </c>
+      <c r="D6" s="38">
+        <v>40.43</v>
+      </c>
+      <c r="E6" s="38">
+        <v>7.56</v>
+      </c>
+      <c r="F6" s="38">
+        <f>100*C6/(A6*$H$2)</f>
+        <v>17.835329341317365</v>
+      </c>
+      <c r="G6" s="38">
+        <f t="shared" si="0"/>
+        <v>77.958245160817512</v>
+      </c>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="38">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="38">
+        <v>15</v>
+      </c>
+      <c r="C7" s="38">
+        <v>297.08</v>
+      </c>
+      <c r="D7" s="38">
+        <v>40.85</v>
+      </c>
+      <c r="E7" s="38">
+        <v>9.44</v>
+      </c>
+      <c r="F7" s="38">
+        <f>100*C7/(A7*$H$2)</f>
+        <v>17.789221556886229</v>
+      </c>
+      <c r="G7" s="38">
+        <f t="shared" si="0"/>
+        <v>77.038773520320319</v>
+      </c>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="38">
+        <v>100</v>
+      </c>
+      <c r="B8" s="38">
+        <v>25</v>
+      </c>
+      <c r="C8" s="38">
+        <v>26.99</v>
+      </c>
+      <c r="D8" s="38">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="E8" s="38">
+        <v>0.95</v>
+      </c>
+      <c r="F8" s="38">
+        <f>100*C8/(A8*$H$2)</f>
+        <v>16.161676646706585</v>
+      </c>
+      <c r="G8" s="38">
+        <f t="shared" si="0"/>
+        <v>80.142528394328551</v>
+      </c>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="38">
+        <v>200</v>
+      </c>
+      <c r="B9" s="38">
+        <v>25</v>
+      </c>
+      <c r="C9" s="38">
+        <v>55.71</v>
+      </c>
+      <c r="D9" s="38">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E9" s="38">
+        <v>1.9</v>
+      </c>
+      <c r="F9" s="38">
+        <f>100*C9/(A9*$H$2)</f>
+        <v>16.679640718562876</v>
+      </c>
+      <c r="G9" s="38">
+        <f t="shared" si="0"/>
+        <v>79.893876380324102</v>
+      </c>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="38">
+        <v>400</v>
+      </c>
+      <c r="B10" s="38">
+        <v>25</v>
+      </c>
+      <c r="C10" s="38">
+        <v>114</v>
+      </c>
+      <c r="D10" s="38">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="E10" s="38">
+        <v>3.79</v>
+      </c>
+      <c r="F10" s="38">
+        <f>100*C10/(A10*$H$2)</f>
+        <v>17.065868263473053</v>
+      </c>
+      <c r="G10" s="38">
+        <f t="shared" si="0"/>
+        <v>79.197355641977936</v>
+      </c>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="38">
+        <v>600</v>
+      </c>
+      <c r="B11" s="38">
+        <v>25</v>
+      </c>
+      <c r="C11" s="38">
+        <v>172.12</v>
+      </c>
+      <c r="D11" s="38">
+        <v>38.74</v>
+      </c>
+      <c r="E11" s="38">
+        <v>5.69</v>
+      </c>
+      <c r="F11" s="38">
+        <f>100*C11/(A11*$H$2)</f>
+        <v>17.177644710578843</v>
+      </c>
+      <c r="G11" s="38">
+        <f t="shared" si="0"/>
+        <v>78.083532867033881</v>
+      </c>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="38">
+        <v>800</v>
+      </c>
+      <c r="B12" s="38">
+        <v>25</v>
+      </c>
+      <c r="C12" s="38">
+        <v>229.44</v>
+      </c>
+      <c r="D12" s="38">
+        <v>39.29</v>
+      </c>
+      <c r="E12" s="38">
+        <v>7.59</v>
+      </c>
+      <c r="F12" s="38">
+        <f>100*C12/(A12*$H$2)</f>
+        <v>17.17365269461078</v>
+      </c>
+      <c r="G12" s="38">
+        <f t="shared" si="0"/>
+        <v>76.93878598080353</v>
+      </c>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="39">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="39">
+        <v>25</v>
+      </c>
+      <c r="C13" s="39">
+        <v>285.69</v>
+      </c>
+      <c r="D13" s="39">
+        <v>39.71</v>
+      </c>
+      <c r="E13" s="39">
+        <v>9.49</v>
+      </c>
+      <c r="F13" s="39">
+        <f>100*C13/(A13*$H$2)</f>
+        <v>17.107185628742513</v>
+      </c>
+      <c r="G13" s="39">
+        <f t="shared" si="0"/>
+        <v>75.810426434643787</v>
+      </c>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="38">
+        <v>1100</v>
+      </c>
+      <c r="B14" s="38">
+        <v>25</v>
+      </c>
+      <c r="C14" s="38">
+        <v>313.33999999999997</v>
+      </c>
+      <c r="D14" s="38">
+        <v>39.9</v>
+      </c>
+      <c r="E14" s="38">
+        <v>10.43</v>
+      </c>
+      <c r="F14" s="38">
+        <f>100*C14/(A14*$H$2)</f>
+        <v>17.057158410451823</v>
+      </c>
+      <c r="G14" s="38">
+        <f t="shared" si="0"/>
+        <v>75.293699252926174</v>
+      </c>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="38">
+        <v>400</v>
+      </c>
+      <c r="B15" s="38">
+        <v>50</v>
+      </c>
+      <c r="C15" s="38">
+        <v>103.51</v>
+      </c>
+      <c r="D15" s="38">
+        <v>35.01</v>
+      </c>
+      <c r="E15" s="38">
+        <v>3.84</v>
+      </c>
+      <c r="F15" s="38">
+        <f>100*C15/(A15*$H$2)</f>
+        <v>15.495508982035927</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="0"/>
+        <v>76.994370656003042</v>
+      </c>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="38">
+        <v>600</v>
+      </c>
+      <c r="B16" s="38">
+        <v>50</v>
+      </c>
+      <c r="C16" s="38">
+        <v>155.88999999999999</v>
+      </c>
+      <c r="D16" s="38">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="E16" s="38">
+        <v>5.75</v>
+      </c>
+      <c r="F16" s="38">
+        <f>100*C16/(A16*$H$2)</f>
+        <v>15.557884231536924</v>
+      </c>
+      <c r="G16" s="38">
+        <f t="shared" si="0"/>
+        <v>75.645380434782595</v>
+      </c>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="38">
+        <v>800</v>
+      </c>
+      <c r="B17" s="38">
+        <v>50</v>
+      </c>
+      <c r="C17" s="38">
+        <v>207.02</v>
+      </c>
+      <c r="D17" s="38">
+        <v>36.42</v>
+      </c>
+      <c r="E17" s="38">
+        <v>7.67</v>
+      </c>
+      <c r="F17" s="38">
+        <f>100*C17/(A17*$H$2)</f>
+        <v>15.495508982035927</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="shared" si="0"/>
+        <v>74.11003166734325</v>
+      </c>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="38">
+        <v>1000</v>
+      </c>
+      <c r="B18" s="38">
+        <v>50</v>
+      </c>
+      <c r="C18" s="38">
+        <v>256.75</v>
+      </c>
+      <c r="D18" s="38">
+        <v>36.89</v>
+      </c>
+      <c r="E18" s="38">
+        <v>9.6</v>
+      </c>
+      <c r="F18" s="38">
+        <f>100*C18/(A18*$H$2)</f>
+        <v>15.374251497005988</v>
+      </c>
+      <c r="G18" s="38">
+        <f t="shared" si="0"/>
+        <v>72.498757567543151</v>
+      </c>
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="38">
+        <v>1100</v>
+      </c>
+      <c r="B19" s="38">
+        <v>50</v>
+      </c>
+      <c r="C19" s="38">
+        <v>280.74</v>
+      </c>
+      <c r="D19" s="38">
+        <v>37.08</v>
+      </c>
+      <c r="E19" s="38">
+        <v>10.55</v>
+      </c>
+      <c r="F19" s="38">
+        <f>100*C19/(A19*$H$2)</f>
+        <v>15.282525857376157</v>
+      </c>
+      <c r="G19" s="38">
+        <f t="shared" si="0"/>
+        <v>71.764904369698925</v>
+      </c>
+      <c r="H19" s="38"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="38">
+        <v>600</v>
+      </c>
+      <c r="B20" s="38">
+        <v>75</v>
+      </c>
+      <c r="C20" s="38">
+        <v>139.37</v>
+      </c>
+      <c r="D20" s="38">
+        <v>32.93</v>
+      </c>
+      <c r="E20" s="38">
+        <v>5.82</v>
+      </c>
+      <c r="F20" s="38">
+        <f>100*C20/(A20*$H$2)</f>
+        <v>13.909181636726547</v>
+      </c>
+      <c r="G20" s="38">
+        <f t="shared" si="0"/>
+        <v>72.720119633127851</v>
+      </c>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="38">
+        <v>800</v>
+      </c>
+      <c r="B21" s="38">
+        <v>75</v>
+      </c>
+      <c r="C21" s="38">
+        <v>184.21</v>
+      </c>
+      <c r="D21" s="38">
+        <v>33.56</v>
+      </c>
+      <c r="E21" s="38">
+        <v>7.76</v>
+      </c>
+      <c r="F21" s="38">
+        <f>100*C21/(A21*$H$2)</f>
+        <v>13.78817365269461</v>
+      </c>
+      <c r="G21" s="38">
+        <f t="shared" si="0"/>
+        <v>70.734213533538934</v>
+      </c>
+      <c r="H21" s="38"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="38">
+        <v>1000</v>
+      </c>
+      <c r="B22" s="38">
+        <v>75</v>
+      </c>
+      <c r="C22" s="38">
+        <v>227.79</v>
+      </c>
+      <c r="D22" s="38">
+        <v>34.049999999999997</v>
+      </c>
+      <c r="E22" s="38">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="F22" s="38">
+        <f>100*C22/(A22*$H$2)</f>
+        <v>13.640119760479042</v>
+      </c>
+      <c r="G22" s="38">
+        <f t="shared" si="0"/>
+        <v>68.89668219783411</v>
+      </c>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="38">
+        <v>1100</v>
+      </c>
+      <c r="B23" s="38">
+        <v>75</v>
+      </c>
+      <c r="C23" s="38">
+        <v>247.64</v>
+      </c>
+      <c r="D23" s="38">
+        <v>34.26</v>
+      </c>
+      <c r="E23" s="38">
+        <v>10.66</v>
+      </c>
+      <c r="F23" s="38">
+        <f>100*C23/(A23*$H$2)</f>
+        <v>13.480675013609146</v>
+      </c>
+      <c r="G23" s="38">
+        <f t="shared" si="0"/>
+        <v>67.807265705689531</v>
+      </c>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>